--- a/excel/finished/wg8#高炉/出铁化学成分报表.xlsx
+++ b/excel/finished/wg8#高炉/出铁化学成分报表.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22130"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6570F60A-572D-4CC9-83A0-25C606D15AFC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F1DC437-8444-42D5-A1C4-2FB382256422}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -915,8 +915,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:W54"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="A27" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F56" sqref="F56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2263,81 +2263,81 @@
       </c>
       <c r="C53" s="15"/>
       <c r="D53" s="16"/>
-      <c r="E53" s="9" t="e">
-        <f>AVERAGE(E5:E52)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F53" s="9" t="e">
-        <f t="shared" ref="F53:W53" si="0">AVERAGE(F5:F52)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G53" s="9" t="e">
+      <c r="E53" s="9" t="str">
+        <f>IFERROR(AVERAGE(E5:E52),"")</f>
+        <v/>
+      </c>
+      <c r="F53" s="9" t="str">
+        <f t="shared" ref="F53:W53" si="0">IFERROR(AVERAGE(F5:F52),"")</f>
+        <v/>
+      </c>
+      <c r="G53" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H53" s="9" t="e">
+        <v/>
+      </c>
+      <c r="H53" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I53" s="9" t="e">
+        <v/>
+      </c>
+      <c r="I53" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J53" s="9" t="e">
+        <v/>
+      </c>
+      <c r="J53" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K53" s="9" t="e">
+        <v/>
+      </c>
+      <c r="K53" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L53" s="9" t="e">
+        <v/>
+      </c>
+      <c r="L53" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M53" s="9" t="e">
+        <v/>
+      </c>
+      <c r="M53" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N53" s="9" t="e">
+        <v/>
+      </c>
+      <c r="N53" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O53" s="9" t="e">
+        <v/>
+      </c>
+      <c r="O53" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P53" s="9" t="e">
+        <v/>
+      </c>
+      <c r="P53" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q53" s="9" t="e">
+        <v/>
+      </c>
+      <c r="Q53" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R53" s="9" t="e">
+        <v/>
+      </c>
+      <c r="R53" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S53" s="9" t="e">
+        <v/>
+      </c>
+      <c r="S53" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T53" s="9" t="e">
+        <v/>
+      </c>
+      <c r="T53" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U53" s="9" t="e">
+        <v/>
+      </c>
+      <c r="U53" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V53" s="9" t="e">
+        <v/>
+      </c>
+      <c r="V53" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W53" s="9" t="e">
+        <v/>
+      </c>
+      <c r="W53" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v/>
       </c>
     </row>
     <row r="54" spans="2:23" ht="14.25" thickTop="1" x14ac:dyDescent="0.15"/>

--- a/excel/finished/wg8#高炉/出铁化学成分报表.xlsx
+++ b/excel/finished/wg8#高炉/出铁化学成分报表.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22228"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88868D0D-BE0E-4C02-92FB-D123B56DC7F2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8F148E5-7544-4288-B148-E56D651617D3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="2040" windowWidth="26955" windowHeight="13215" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="8高炉出铁化学成分报表" sheetId="1" r:id="rId1"/>
@@ -921,7 +921,7 @@
   <dimension ref="B1:W54"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/excel/finished/wg8#高炉/出铁化学成分报表.xlsx
+++ b/excel/finished/wg8#高炉/出铁化学成分报表.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22228"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8F148E5-7544-4288-B148-E56D651617D3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86B813B5-45D2-473F-B0D3-DD4035CB1DFD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2040" windowWidth="26955" windowHeight="13215" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1275" yWindow="-120" windowWidth="27645" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="8高炉出铁化学成分报表" sheetId="1" r:id="rId1"/>
@@ -524,7 +524,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -547,6 +547,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -918,78 +919,78 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:W54"/>
+  <dimension ref="B1:W21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="2:23" ht="47.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
-      <c r="M1" s="14"/>
-      <c r="N1" s="14"/>
-      <c r="O1" s="14"/>
-      <c r="P1" s="14"/>
-      <c r="Q1" s="14"/>
-      <c r="R1" s="14"/>
-      <c r="S1" s="14"/>
-      <c r="T1" s="14"/>
-      <c r="U1" s="14"/>
-      <c r="V1" s="14"/>
-      <c r="W1" s="14"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="15"/>
+      <c r="O1" s="15"/>
+      <c r="P1" s="15"/>
+      <c r="Q1" s="15"/>
+      <c r="R1" s="15"/>
+      <c r="S1" s="15"/>
+      <c r="T1" s="15"/>
+      <c r="U1" s="15"/>
+      <c r="V1" s="15"/>
+      <c r="W1" s="15"/>
     </row>
     <row r="2" spans="2:23" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="23" t="s">
+      <c r="C2" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="23" t="s">
+      <c r="D2" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="23" t="s">
+      <c r="E2" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="23"/>
-      <c r="L2" s="18" t="s">
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="24"/>
+      <c r="L2" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="19"/>
-      <c r="N2" s="19"/>
-      <c r="O2" s="19"/>
-      <c r="P2" s="19"/>
-      <c r="Q2" s="19"/>
-      <c r="R2" s="19"/>
-      <c r="S2" s="19"/>
-      <c r="T2" s="19"/>
-      <c r="U2" s="19"/>
-      <c r="V2" s="19"/>
-      <c r="W2" s="20"/>
+      <c r="M2" s="20"/>
+      <c r="N2" s="20"/>
+      <c r="O2" s="20"/>
+      <c r="P2" s="20"/>
+      <c r="Q2" s="20"/>
+      <c r="R2" s="20"/>
+      <c r="S2" s="20"/>
+      <c r="T2" s="20"/>
+      <c r="U2" s="20"/>
+      <c r="V2" s="20"/>
+      <c r="W2" s="21"/>
     </row>
     <row r="3" spans="2:23" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="22"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
+      <c r="B3" s="23"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
       <c r="E3" s="1" t="s">
         <v>4</v>
       </c>
@@ -1398,7 +1399,7 @@
       <c r="V16" s="6"/>
       <c r="W16" s="7"/>
     </row>
-    <row r="17" spans="2:23" ht="17.45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:23" x14ac:dyDescent="0.15">
       <c r="B17" s="5"/>
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
@@ -1422,7 +1423,7 @@
       <c r="V17" s="6"/>
       <c r="W17" s="7"/>
     </row>
-    <row r="18" spans="2:23" ht="17.45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:23" x14ac:dyDescent="0.15">
       <c r="B18" s="5"/>
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
@@ -1446,7 +1447,7 @@
       <c r="V18" s="6"/>
       <c r="W18" s="7"/>
     </row>
-    <row r="19" spans="2:23" ht="17.45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:23" x14ac:dyDescent="0.15">
       <c r="B19" s="5"/>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
@@ -1470,886 +1471,94 @@
       <c r="V19" s="6"/>
       <c r="W19" s="7"/>
     </row>
-    <row r="20" spans="2:23" ht="17.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B20" s="5"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="6"/>
-      <c r="J20" s="6"/>
-      <c r="K20" s="6"/>
-      <c r="L20" s="6"/>
-      <c r="M20" s="6"/>
-      <c r="N20" s="6"/>
-      <c r="O20" s="6"/>
-      <c r="P20" s="6"/>
-      <c r="Q20" s="6"/>
-      <c r="R20" s="6"/>
-      <c r="S20" s="6"/>
-      <c r="T20" s="6"/>
-      <c r="U20" s="6"/>
-      <c r="V20" s="6"/>
-      <c r="W20" s="7"/>
-    </row>
-    <row r="21" spans="2:23" ht="17.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B21" s="5"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
-      <c r="I21" s="6"/>
-      <c r="J21" s="6"/>
-      <c r="K21" s="6"/>
-      <c r="L21" s="6"/>
-      <c r="M21" s="6"/>
-      <c r="N21" s="6"/>
-      <c r="O21" s="6"/>
-      <c r="P21" s="6"/>
-      <c r="Q21" s="6"/>
-      <c r="R21" s="6"/>
-      <c r="S21" s="6"/>
-      <c r="T21" s="6"/>
-      <c r="U21" s="6"/>
-      <c r="V21" s="6"/>
-      <c r="W21" s="7"/>
-    </row>
-    <row r="22" spans="2:23" ht="17.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B22" s="5"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="6"/>
-      <c r="I22" s="6"/>
-      <c r="J22" s="6"/>
-      <c r="K22" s="6"/>
-      <c r="L22" s="6"/>
-      <c r="M22" s="6"/>
-      <c r="N22" s="6"/>
-      <c r="O22" s="6"/>
-      <c r="P22" s="6"/>
-      <c r="Q22" s="6"/>
-      <c r="R22" s="6"/>
-      <c r="S22" s="6"/>
-      <c r="T22" s="6"/>
-      <c r="U22" s="6"/>
-      <c r="V22" s="6"/>
-      <c r="W22" s="7"/>
-    </row>
-    <row r="23" spans="2:23" ht="17.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B23" s="5"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="6"/>
-      <c r="I23" s="6"/>
-      <c r="J23" s="6"/>
-      <c r="K23" s="6"/>
-      <c r="L23" s="6"/>
-      <c r="M23" s="6"/>
-      <c r="N23" s="6"/>
-      <c r="O23" s="6"/>
-      <c r="P23" s="6"/>
-      <c r="Q23" s="6"/>
-      <c r="R23" s="6"/>
-      <c r="S23" s="6"/>
-      <c r="T23" s="6"/>
-      <c r="U23" s="6"/>
-      <c r="V23" s="6"/>
-      <c r="W23" s="7"/>
-    </row>
-    <row r="24" spans="2:23" ht="17.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B24" s="5"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
-      <c r="H24" s="6"/>
-      <c r="I24" s="6"/>
-      <c r="J24" s="6"/>
-      <c r="K24" s="6"/>
-      <c r="L24" s="6"/>
-      <c r="M24" s="6"/>
-      <c r="N24" s="6"/>
-      <c r="O24" s="6"/>
-      <c r="P24" s="6"/>
-      <c r="Q24" s="6"/>
-      <c r="R24" s="6"/>
-      <c r="S24" s="6"/>
-      <c r="T24" s="6"/>
-      <c r="U24" s="6"/>
-      <c r="V24" s="6"/>
-      <c r="W24" s="7"/>
-    </row>
-    <row r="25" spans="2:23" ht="17.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B25" s="5"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
-      <c r="H25" s="6"/>
-      <c r="I25" s="6"/>
-      <c r="J25" s="6"/>
-      <c r="K25" s="6"/>
-      <c r="L25" s="6"/>
-      <c r="M25" s="6"/>
-      <c r="N25" s="6"/>
-      <c r="O25" s="6"/>
-      <c r="P25" s="6"/>
-      <c r="Q25" s="6"/>
-      <c r="R25" s="6"/>
-      <c r="S25" s="6"/>
-      <c r="T25" s="6"/>
-      <c r="U25" s="6"/>
-      <c r="V25" s="6"/>
-      <c r="W25" s="7"/>
-    </row>
-    <row r="26" spans="2:23" ht="17.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B26" s="5"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="6"/>
-      <c r="H26" s="6"/>
-      <c r="I26" s="6"/>
-      <c r="J26" s="6"/>
-      <c r="K26" s="6"/>
-      <c r="L26" s="6"/>
-      <c r="M26" s="6"/>
-      <c r="N26" s="6"/>
-      <c r="O26" s="6"/>
-      <c r="P26" s="6"/>
-      <c r="Q26" s="6"/>
-      <c r="R26" s="6"/>
-      <c r="S26" s="6"/>
-      <c r="T26" s="6"/>
-      <c r="U26" s="6"/>
-      <c r="V26" s="6"/>
-      <c r="W26" s="7"/>
-    </row>
-    <row r="27" spans="2:23" ht="17.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B27" s="5"/>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="6"/>
-      <c r="H27" s="6"/>
-      <c r="I27" s="6"/>
-      <c r="J27" s="6"/>
-      <c r="K27" s="6"/>
-      <c r="L27" s="6"/>
-      <c r="M27" s="6"/>
-      <c r="N27" s="6"/>
-      <c r="O27" s="6"/>
-      <c r="P27" s="6"/>
-      <c r="Q27" s="6"/>
-      <c r="R27" s="6"/>
-      <c r="S27" s="6"/>
-      <c r="T27" s="6"/>
-      <c r="U27" s="6"/>
-      <c r="V27" s="6"/>
-      <c r="W27" s="7"/>
-    </row>
-    <row r="28" spans="2:23" ht="17.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B28" s="5"/>
-      <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="6"/>
-      <c r="G28" s="6"/>
-      <c r="H28" s="6"/>
-      <c r="I28" s="6"/>
-      <c r="J28" s="6"/>
-      <c r="K28" s="6"/>
-      <c r="L28" s="6"/>
-      <c r="M28" s="6"/>
-      <c r="N28" s="6"/>
-      <c r="O28" s="6"/>
-      <c r="P28" s="6"/>
-      <c r="Q28" s="6"/>
-      <c r="R28" s="6"/>
-      <c r="S28" s="6"/>
-      <c r="T28" s="6"/>
-      <c r="U28" s="6"/>
-      <c r="V28" s="6"/>
-      <c r="W28" s="7"/>
-    </row>
-    <row r="29" spans="2:23" ht="17.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B29" s="5"/>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6"/>
-      <c r="G29" s="6"/>
-      <c r="H29" s="6"/>
-      <c r="I29" s="6"/>
-      <c r="J29" s="6"/>
-      <c r="K29" s="6"/>
-      <c r="L29" s="6"/>
-      <c r="M29" s="6"/>
-      <c r="N29" s="6"/>
-      <c r="O29" s="6"/>
-      <c r="P29" s="6"/>
-      <c r="Q29" s="6"/>
-      <c r="R29" s="6"/>
-      <c r="S29" s="6"/>
-      <c r="T29" s="6"/>
-      <c r="U29" s="6"/>
-      <c r="V29" s="6"/>
-      <c r="W29" s="7"/>
-    </row>
-    <row r="30" spans="2:23" ht="17.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B30" s="5"/>
-      <c r="C30" s="6"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6"/>
-      <c r="F30" s="6"/>
-      <c r="G30" s="6"/>
-      <c r="H30" s="6"/>
-      <c r="I30" s="6"/>
-      <c r="J30" s="6"/>
-      <c r="K30" s="6"/>
-      <c r="L30" s="6"/>
-      <c r="M30" s="6"/>
-      <c r="N30" s="6"/>
-      <c r="O30" s="6"/>
-      <c r="P30" s="6"/>
-      <c r="Q30" s="6"/>
-      <c r="R30" s="6"/>
-      <c r="S30" s="6"/>
-      <c r="T30" s="6"/>
-      <c r="U30" s="6"/>
-      <c r="V30" s="6"/>
-      <c r="W30" s="7"/>
-    </row>
-    <row r="31" spans="2:23" ht="17.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B31" s="5"/>
-      <c r="C31" s="6"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="6"/>
-      <c r="F31" s="6"/>
-      <c r="G31" s="6"/>
-      <c r="H31" s="6"/>
-      <c r="I31" s="6"/>
-      <c r="J31" s="6"/>
-      <c r="K31" s="6"/>
-      <c r="L31" s="6"/>
-      <c r="M31" s="6"/>
-      <c r="N31" s="6"/>
-      <c r="O31" s="6"/>
-      <c r="P31" s="6"/>
-      <c r="Q31" s="6"/>
-      <c r="R31" s="6"/>
-      <c r="S31" s="6"/>
-      <c r="T31" s="6"/>
-      <c r="U31" s="6"/>
-      <c r="V31" s="6"/>
-      <c r="W31" s="7"/>
-    </row>
-    <row r="32" spans="2:23" ht="17.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B32" s="5"/>
-      <c r="C32" s="6"/>
-      <c r="D32" s="6"/>
-      <c r="E32" s="6"/>
-      <c r="F32" s="6"/>
-      <c r="G32" s="6"/>
-      <c r="H32" s="6"/>
-      <c r="I32" s="6"/>
-      <c r="J32" s="6"/>
-      <c r="K32" s="6"/>
-      <c r="L32" s="6"/>
-      <c r="M32" s="6"/>
-      <c r="N32" s="6"/>
-      <c r="O32" s="6"/>
-      <c r="P32" s="6"/>
-      <c r="Q32" s="6"/>
-      <c r="R32" s="6"/>
-      <c r="S32" s="6"/>
-      <c r="T32" s="6"/>
-      <c r="U32" s="6"/>
-      <c r="V32" s="6"/>
-      <c r="W32" s="7"/>
-    </row>
-    <row r="33" spans="2:23" ht="17.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B33" s="5"/>
-      <c r="C33" s="6"/>
-      <c r="D33" s="6"/>
-      <c r="E33" s="6"/>
-      <c r="F33" s="6"/>
-      <c r="G33" s="6"/>
-      <c r="H33" s="6"/>
-      <c r="I33" s="6"/>
-      <c r="J33" s="6"/>
-      <c r="K33" s="6"/>
-      <c r="L33" s="6"/>
-      <c r="M33" s="6"/>
-      <c r="N33" s="6"/>
-      <c r="O33" s="6"/>
-      <c r="P33" s="6"/>
-      <c r="Q33" s="6"/>
-      <c r="R33" s="6"/>
-      <c r="S33" s="6"/>
-      <c r="T33" s="6"/>
-      <c r="U33" s="6"/>
-      <c r="V33" s="6"/>
-      <c r="W33" s="7"/>
-    </row>
-    <row r="34" spans="2:23" ht="17.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B34" s="5"/>
-      <c r="C34" s="6"/>
-      <c r="D34" s="6"/>
-      <c r="E34" s="6"/>
-      <c r="F34" s="6"/>
-      <c r="G34" s="6"/>
-      <c r="H34" s="6"/>
-      <c r="I34" s="6"/>
-      <c r="J34" s="6"/>
-      <c r="K34" s="6"/>
-      <c r="L34" s="6"/>
-      <c r="M34" s="6"/>
-      <c r="N34" s="6"/>
-      <c r="O34" s="6"/>
-      <c r="P34" s="6"/>
-      <c r="Q34" s="6"/>
-      <c r="R34" s="6"/>
-      <c r="S34" s="6"/>
-      <c r="T34" s="6"/>
-      <c r="U34" s="6"/>
-      <c r="V34" s="6"/>
-      <c r="W34" s="7"/>
-    </row>
-    <row r="35" spans="2:23" ht="17.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B35" s="5"/>
-      <c r="C35" s="6"/>
-      <c r="D35" s="6"/>
-      <c r="E35" s="6"/>
-      <c r="F35" s="6"/>
-      <c r="G35" s="6"/>
-      <c r="H35" s="6"/>
-      <c r="I35" s="6"/>
-      <c r="J35" s="6"/>
-      <c r="K35" s="6"/>
-      <c r="L35" s="6"/>
-      <c r="M35" s="6"/>
-      <c r="N35" s="6"/>
-      <c r="O35" s="6"/>
-      <c r="P35" s="6"/>
-      <c r="Q35" s="6"/>
-      <c r="R35" s="6"/>
-      <c r="S35" s="6"/>
-      <c r="T35" s="6"/>
-      <c r="U35" s="6"/>
-      <c r="V35" s="6"/>
-      <c r="W35" s="7"/>
-    </row>
-    <row r="36" spans="2:23" ht="17.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B36" s="5"/>
-      <c r="C36" s="6"/>
-      <c r="D36" s="6"/>
-      <c r="E36" s="6"/>
-      <c r="F36" s="6"/>
-      <c r="G36" s="6"/>
-      <c r="H36" s="6"/>
-      <c r="I36" s="6"/>
-      <c r="J36" s="6"/>
-      <c r="K36" s="6"/>
-      <c r="L36" s="6"/>
-      <c r="M36" s="6"/>
-      <c r="N36" s="6"/>
-      <c r="O36" s="6"/>
-      <c r="P36" s="6"/>
-      <c r="Q36" s="6"/>
-      <c r="R36" s="6"/>
-      <c r="S36" s="6"/>
-      <c r="T36" s="6"/>
-      <c r="U36" s="6"/>
-      <c r="V36" s="6"/>
-      <c r="W36" s="7"/>
-    </row>
-    <row r="37" spans="2:23" ht="17.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B37" s="5"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
-      <c r="G37" s="6"/>
-      <c r="H37" s="6"/>
-      <c r="I37" s="6"/>
-      <c r="J37" s="6"/>
-      <c r="K37" s="6"/>
-      <c r="L37" s="6"/>
-      <c r="M37" s="6"/>
-      <c r="N37" s="6"/>
-      <c r="O37" s="6"/>
-      <c r="P37" s="6"/>
-      <c r="Q37" s="6"/>
-      <c r="R37" s="6"/>
-      <c r="S37" s="6"/>
-      <c r="T37" s="6"/>
-      <c r="U37" s="6"/>
-      <c r="V37" s="6"/>
-      <c r="W37" s="7"/>
-    </row>
-    <row r="38" spans="2:23" ht="17.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B38" s="5"/>
-      <c r="C38" s="6"/>
-      <c r="D38" s="6"/>
-      <c r="E38" s="6"/>
-      <c r="F38" s="6"/>
-      <c r="G38" s="6"/>
-      <c r="H38" s="6"/>
-      <c r="I38" s="6"/>
-      <c r="J38" s="6"/>
-      <c r="K38" s="6"/>
-      <c r="L38" s="6"/>
-      <c r="M38" s="6"/>
-      <c r="N38" s="6"/>
-      <c r="O38" s="6"/>
-      <c r="P38" s="6"/>
-      <c r="Q38" s="6"/>
-      <c r="R38" s="6"/>
-      <c r="S38" s="6"/>
-      <c r="T38" s="6"/>
-      <c r="U38" s="6"/>
-      <c r="V38" s="6"/>
-      <c r="W38" s="7"/>
-    </row>
-    <row r="39" spans="2:23" ht="17.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B39" s="5"/>
-      <c r="C39" s="6"/>
-      <c r="D39" s="6"/>
-      <c r="E39" s="6"/>
-      <c r="F39" s="6"/>
-      <c r="G39" s="6"/>
-      <c r="H39" s="6"/>
-      <c r="I39" s="6"/>
-      <c r="J39" s="6"/>
-      <c r="K39" s="6"/>
-      <c r="L39" s="6"/>
-      <c r="M39" s="6"/>
-      <c r="N39" s="6"/>
-      <c r="O39" s="6"/>
-      <c r="P39" s="6"/>
-      <c r="Q39" s="6"/>
-      <c r="R39" s="6"/>
-      <c r="S39" s="6"/>
-      <c r="T39" s="6"/>
-      <c r="U39" s="6"/>
-      <c r="V39" s="6"/>
-      <c r="W39" s="7"/>
-    </row>
-    <row r="40" spans="2:23" ht="17.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B40" s="5"/>
-      <c r="C40" s="6"/>
-      <c r="D40" s="6"/>
-      <c r="E40" s="6"/>
-      <c r="F40" s="6"/>
-      <c r="G40" s="6"/>
-      <c r="H40" s="6"/>
-      <c r="I40" s="6"/>
-      <c r="J40" s="6"/>
-      <c r="K40" s="6"/>
-      <c r="L40" s="6"/>
-      <c r="M40" s="6"/>
-      <c r="N40" s="6"/>
-      <c r="O40" s="6"/>
-      <c r="P40" s="6"/>
-      <c r="Q40" s="6"/>
-      <c r="R40" s="6"/>
-      <c r="S40" s="6"/>
-      <c r="T40" s="6"/>
-      <c r="U40" s="6"/>
-      <c r="V40" s="6"/>
-      <c r="W40" s="7"/>
-    </row>
-    <row r="41" spans="2:23" ht="17.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B41" s="5"/>
-      <c r="C41" s="6"/>
-      <c r="D41" s="6"/>
-      <c r="E41" s="6"/>
-      <c r="F41" s="6"/>
-      <c r="G41" s="6"/>
-      <c r="H41" s="6"/>
-      <c r="I41" s="6"/>
-      <c r="J41" s="6"/>
-      <c r="K41" s="6"/>
-      <c r="L41" s="6"/>
-      <c r="M41" s="6"/>
-      <c r="N41" s="6"/>
-      <c r="O41" s="6"/>
-      <c r="P41" s="6"/>
-      <c r="Q41" s="6"/>
-      <c r="R41" s="6"/>
-      <c r="S41" s="6"/>
-      <c r="T41" s="6"/>
-      <c r="U41" s="6"/>
-      <c r="V41" s="6"/>
-      <c r="W41" s="7"/>
-    </row>
-    <row r="42" spans="2:23" ht="17.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B42" s="5"/>
-      <c r="C42" s="6"/>
-      <c r="D42" s="6"/>
-      <c r="E42" s="6"/>
-      <c r="F42" s="6"/>
-      <c r="G42" s="6"/>
-      <c r="H42" s="6"/>
-      <c r="I42" s="6"/>
-      <c r="J42" s="6"/>
-      <c r="K42" s="6"/>
-      <c r="L42" s="6"/>
-      <c r="M42" s="6"/>
-      <c r="N42" s="6"/>
-      <c r="O42" s="6"/>
-      <c r="P42" s="6"/>
-      <c r="Q42" s="6"/>
-      <c r="R42" s="6"/>
-      <c r="S42" s="6"/>
-      <c r="T42" s="6"/>
-      <c r="U42" s="6"/>
-      <c r="V42" s="6"/>
-      <c r="W42" s="7"/>
-    </row>
-    <row r="43" spans="2:23" ht="17.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B43" s="5"/>
-      <c r="C43" s="6"/>
-      <c r="D43" s="6"/>
-      <c r="E43" s="6"/>
-      <c r="F43" s="6"/>
-      <c r="G43" s="6"/>
-      <c r="H43" s="6"/>
-      <c r="I43" s="6"/>
-      <c r="J43" s="6"/>
-      <c r="K43" s="6"/>
-      <c r="L43" s="6"/>
-      <c r="M43" s="6"/>
-      <c r="N43" s="6"/>
-      <c r="O43" s="6"/>
-      <c r="P43" s="6"/>
-      <c r="Q43" s="6"/>
-      <c r="R43" s="6"/>
-      <c r="S43" s="6"/>
-      <c r="T43" s="6"/>
-      <c r="U43" s="6"/>
-      <c r="V43" s="6"/>
-      <c r="W43" s="7"/>
-    </row>
-    <row r="44" spans="2:23" ht="17.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B44" s="5"/>
-      <c r="C44" s="6"/>
-      <c r="D44" s="6"/>
-      <c r="E44" s="6"/>
-      <c r="F44" s="6"/>
-      <c r="G44" s="6"/>
-      <c r="H44" s="6"/>
-      <c r="I44" s="6"/>
-      <c r="J44" s="6"/>
-      <c r="K44" s="6"/>
-      <c r="L44" s="6"/>
-      <c r="M44" s="6"/>
-      <c r="N44" s="6"/>
-      <c r="O44" s="6"/>
-      <c r="P44" s="6"/>
-      <c r="Q44" s="6"/>
-      <c r="R44" s="6"/>
-      <c r="S44" s="6"/>
-      <c r="T44" s="6"/>
-      <c r="U44" s="6"/>
-      <c r="V44" s="6"/>
-      <c r="W44" s="7"/>
-    </row>
-    <row r="45" spans="2:23" ht="17.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B45" s="5"/>
-      <c r="C45" s="6"/>
-      <c r="D45" s="6"/>
-      <c r="E45" s="6"/>
-      <c r="F45" s="6"/>
-      <c r="G45" s="6"/>
-      <c r="H45" s="6"/>
-      <c r="I45" s="6"/>
-      <c r="J45" s="6"/>
-      <c r="K45" s="6"/>
-      <c r="L45" s="6"/>
-      <c r="M45" s="6"/>
-      <c r="N45" s="6"/>
-      <c r="O45" s="6"/>
-      <c r="P45" s="6"/>
-      <c r="Q45" s="6"/>
-      <c r="R45" s="6"/>
-      <c r="S45" s="6"/>
-      <c r="T45" s="6"/>
-      <c r="U45" s="6"/>
-      <c r="V45" s="6"/>
-      <c r="W45" s="7"/>
-    </row>
-    <row r="46" spans="2:23" ht="17.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B46" s="5"/>
-      <c r="C46" s="6"/>
-      <c r="D46" s="6"/>
-      <c r="E46" s="6"/>
-      <c r="F46" s="6"/>
-      <c r="G46" s="6"/>
-      <c r="H46" s="6"/>
-      <c r="I46" s="6"/>
-      <c r="J46" s="6"/>
-      <c r="K46" s="6"/>
-      <c r="L46" s="6"/>
-      <c r="M46" s="6"/>
-      <c r="N46" s="6"/>
-      <c r="O46" s="6"/>
-      <c r="P46" s="6"/>
-      <c r="Q46" s="6"/>
-      <c r="R46" s="6"/>
-      <c r="S46" s="6"/>
-      <c r="T46" s="6"/>
-      <c r="U46" s="6"/>
-      <c r="V46" s="6"/>
-      <c r="W46" s="7"/>
-    </row>
-    <row r="47" spans="2:23" ht="17.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B47" s="5"/>
-      <c r="C47" s="6"/>
-      <c r="D47" s="6"/>
-      <c r="E47" s="6"/>
-      <c r="F47" s="6"/>
-      <c r="G47" s="6"/>
-      <c r="H47" s="6"/>
-      <c r="I47" s="6"/>
-      <c r="J47" s="6"/>
-      <c r="K47" s="6"/>
-      <c r="L47" s="6"/>
-      <c r="M47" s="6"/>
-      <c r="N47" s="6"/>
-      <c r="O47" s="6"/>
-      <c r="P47" s="6"/>
-      <c r="Q47" s="6"/>
-      <c r="R47" s="6"/>
-      <c r="S47" s="6"/>
-      <c r="T47" s="6"/>
-      <c r="U47" s="6"/>
-      <c r="V47" s="6"/>
-      <c r="W47" s="7"/>
-    </row>
-    <row r="48" spans="2:23" ht="17.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B48" s="5"/>
-      <c r="C48" s="6"/>
-      <c r="D48" s="6"/>
-      <c r="E48" s="6"/>
-      <c r="F48" s="6"/>
-      <c r="G48" s="6"/>
-      <c r="H48" s="6"/>
-      <c r="I48" s="6"/>
-      <c r="J48" s="6"/>
-      <c r="K48" s="6"/>
-      <c r="L48" s="6"/>
-      <c r="M48" s="6"/>
-      <c r="N48" s="6"/>
-      <c r="O48" s="6"/>
-      <c r="P48" s="6"/>
-      <c r="Q48" s="6"/>
-      <c r="R48" s="6"/>
-      <c r="S48" s="6"/>
-      <c r="T48" s="6"/>
-      <c r="U48" s="6"/>
-      <c r="V48" s="6"/>
-      <c r="W48" s="7"/>
-    </row>
-    <row r="49" spans="2:23" ht="17.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B49" s="5"/>
-      <c r="C49" s="6"/>
-      <c r="D49" s="6"/>
-      <c r="E49" s="6"/>
-      <c r="F49" s="6"/>
-      <c r="G49" s="6"/>
-      <c r="H49" s="6"/>
-      <c r="I49" s="6"/>
-      <c r="J49" s="6"/>
-      <c r="K49" s="6"/>
-      <c r="L49" s="6"/>
-      <c r="M49" s="6"/>
-      <c r="N49" s="6"/>
-      <c r="O49" s="6"/>
-      <c r="P49" s="6"/>
-      <c r="Q49" s="6"/>
-      <c r="R49" s="6"/>
-      <c r="S49" s="6"/>
-      <c r="T49" s="6"/>
-      <c r="U49" s="6"/>
-      <c r="V49" s="6"/>
-      <c r="W49" s="7"/>
-    </row>
-    <row r="50" spans="2:23" x14ac:dyDescent="0.15">
-      <c r="B50" s="5"/>
-      <c r="C50" s="6"/>
-      <c r="D50" s="6"/>
-      <c r="E50" s="6"/>
-      <c r="F50" s="6"/>
-      <c r="G50" s="6"/>
-      <c r="H50" s="6"/>
-      <c r="I50" s="6"/>
-      <c r="J50" s="6"/>
-      <c r="K50" s="6"/>
-      <c r="L50" s="6"/>
-      <c r="M50" s="6"/>
-      <c r="N50" s="6"/>
-      <c r="O50" s="6"/>
-      <c r="P50" s="6"/>
-      <c r="Q50" s="6"/>
-      <c r="R50" s="6"/>
-      <c r="S50" s="6"/>
-      <c r="T50" s="6"/>
-      <c r="U50" s="6"/>
-      <c r="V50" s="6"/>
-      <c r="W50" s="7"/>
-    </row>
-    <row r="51" spans="2:23" x14ac:dyDescent="0.15">
-      <c r="B51" s="5"/>
-      <c r="C51" s="6"/>
-      <c r="D51" s="6"/>
-      <c r="E51" s="6"/>
-      <c r="F51" s="6"/>
-      <c r="G51" s="6"/>
-      <c r="H51" s="6"/>
-      <c r="I51" s="6"/>
-      <c r="J51" s="6"/>
-      <c r="K51" s="6"/>
-      <c r="L51" s="6"/>
-      <c r="M51" s="6"/>
-      <c r="N51" s="6"/>
-      <c r="O51" s="6"/>
-      <c r="P51" s="6"/>
-      <c r="Q51" s="6"/>
-      <c r="R51" s="6"/>
-      <c r="S51" s="6"/>
-      <c r="T51" s="6"/>
-      <c r="U51" s="6"/>
-      <c r="V51" s="6"/>
-      <c r="W51" s="7"/>
-    </row>
-    <row r="52" spans="2:23" x14ac:dyDescent="0.15">
-      <c r="B52" s="5"/>
-      <c r="C52" s="6"/>
-      <c r="D52" s="6"/>
-      <c r="E52" s="6"/>
-      <c r="F52" s="6"/>
-      <c r="G52" s="6"/>
-      <c r="H52" s="6"/>
-      <c r="I52" s="6"/>
-      <c r="J52" s="6"/>
-      <c r="K52" s="6"/>
-      <c r="L52" s="6"/>
-      <c r="M52" s="6"/>
-      <c r="N52" s="6"/>
-      <c r="O52" s="6"/>
-      <c r="P52" s="6"/>
-      <c r="Q52" s="6"/>
-      <c r="R52" s="6"/>
-      <c r="S52" s="6"/>
-      <c r="T52" s="6"/>
-      <c r="U52" s="6"/>
-      <c r="V52" s="6"/>
-      <c r="W52" s="7"/>
-    </row>
-    <row r="53" spans="2:23" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B53" s="15" t="s">
+    <row r="20" spans="2:23" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="C53" s="16"/>
-      <c r="D53" s="17"/>
-      <c r="E53" s="8" t="str">
-        <f>IFERROR(AVERAGE(E5:E52),"")</f>
-        <v/>
-      </c>
-      <c r="F53" s="8" t="str">
-        <f t="shared" ref="F53:W53" si="0">IFERROR(AVERAGE(F5:F52),"")</f>
-        <v/>
-      </c>
-      <c r="G53" s="8" t="str">
+      <c r="C20" s="17"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="8" t="str">
+        <f>IFERROR(AVERAGE(E5:E19),"")</f>
+        <v/>
+      </c>
+      <c r="F20" s="8" t="str">
+        <f t="shared" ref="F20:W20" si="0">IFERROR(AVERAGE(F5:F19),"")</f>
+        <v/>
+      </c>
+      <c r="G20" s="8" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H53" s="8" t="str">
+      <c r="H20" s="8" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I53" s="8" t="str">
+      <c r="I20" s="8" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J53" s="8" t="str">
+      <c r="J20" s="8" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="K53" s="8" t="str">
+      <c r="K20" s="8" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="L53" s="8" t="str">
+      <c r="L20" s="8" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="M53" s="8" t="str">
+      <c r="M20" s="8" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="N53" s="8" t="str">
+      <c r="N20" s="8" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="O53" s="8" t="str">
+      <c r="O20" s="8" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="P53" s="8" t="str">
+      <c r="P20" s="8" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="Q53" s="8" t="str">
+      <c r="Q20" s="8" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="R53" s="8" t="str">
+      <c r="R20" s="8" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="S53" s="8" t="str">
+      <c r="S20" s="8" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="T53" s="8" t="str">
+      <c r="T20" s="8" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="U53" s="8" t="str">
+      <c r="U20" s="8" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="V53" s="8" t="str">
+      <c r="V20" s="8" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="W53" s="8" t="str">
+      <c r="W20" s="14" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="54" spans="2:23" ht="14.25" thickTop="1" x14ac:dyDescent="0.15"/>
+    <row r="21" spans="2:23" ht="14.25" thickTop="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="B1:W1"/>
-    <mergeCell ref="B53:D53"/>
+    <mergeCell ref="B20:D20"/>
     <mergeCell ref="L2:W2"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C2:C3"/>

--- a/excel/finished/wg8#高炉/出铁化学成分报表.xlsx
+++ b/excel/finished/wg8#高炉/出铁化学成分报表.xlsx
@@ -3,13 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22228"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86B813B5-45D2-473F-B0D3-DD4035CB1DFD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5DC86FA-0D1E-4C32-953A-894BAB62E76A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1275" yWindow="-120" windowWidth="27645" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="8高炉出铁化学成分报表" sheetId="1" r:id="rId1"/>
-    <sheet name="_cthxcf_daytwo_all" sheetId="2" r:id="rId2"/>
+    <sheet name="_cthxcf_dayno_all" sheetId="2" r:id="rId2"/>
     <sheet name="_metadata" sheetId="4" r:id="rId3"/>
     <sheet name="_dictionary" sheetId="3" r:id="rId4"/>
   </sheets>
@@ -922,7 +922,7 @@
   <dimension ref="B1:W21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/excel/finished/wg8#高炉/出铁化学成分报表.xlsx
+++ b/excel/finished/wg8#高炉/出铁化学成分报表.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22228"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5DC86FA-0D1E-4C32-953A-894BAB62E76A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C14A73D-1604-4169-8F91-F7A9CF049E0E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1275" yWindow="-120" windowWidth="27645" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -200,15 +200,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>LZ_四元碱度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>LZ_TiO2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>version</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LZ_R4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -922,10 +922,13 @@
   <dimension ref="B1:W21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L23" sqref="L23"/>
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="3" max="3" width="9.5" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="2:23" ht="47.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B1" s="15" t="s">
@@ -1096,7 +1099,7 @@
         <v>39</v>
       </c>
       <c r="S4" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="T4" s="12" t="s">
         <v>40</v>
@@ -1108,7 +1111,7 @@
         <v>42</v>
       </c>
       <c r="W4" s="13" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="2:23" ht="17.45" customHeight="1" x14ac:dyDescent="0.15">
@@ -1613,7 +1616,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B1">
         <v>8</v>

--- a/excel/finished/wg8#高炉/出铁化学成分报表.xlsx
+++ b/excel/finished/wg8#高炉/出铁化学成分报表.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22228"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C14A73D-1604-4169-8F91-F7A9CF049E0E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABD61F79-7EE2-405E-9CBC-9C95019ADF87}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1275" yWindow="-120" windowWidth="27645" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3165" yWindow="1695" windowWidth="24480" windowHeight="14580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="8高炉出铁化学成分报表" sheetId="1" r:id="rId1"/>
@@ -72,14 +72,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>生铁成分%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>炉渣成分</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>SiO2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -209,6 +201,14 @@
   </si>
   <si>
     <t>LZ_R4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生铁成分(%)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>炉渣成分(%)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -524,7 +524,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -547,7 +547,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -922,78 +921,82 @@
   <dimension ref="B1:W21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="3" max="3" width="9.5" customWidth="1"/>
+    <col min="2" max="2" width="11.125" customWidth="1"/>
+    <col min="3" max="3" width="12.625" customWidth="1"/>
+    <col min="11" max="11" width="0" hidden="1" customWidth="1"/>
+    <col min="21" max="21" width="0" hidden="1" customWidth="1"/>
+    <col min="23" max="23" width="9.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:23" ht="47.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15"/>
-      <c r="M1" s="15"/>
-      <c r="N1" s="15"/>
-      <c r="O1" s="15"/>
-      <c r="P1" s="15"/>
-      <c r="Q1" s="15"/>
-      <c r="R1" s="15"/>
-      <c r="S1" s="15"/>
-      <c r="T1" s="15"/>
-      <c r="U1" s="15"/>
-      <c r="V1" s="15"/>
-      <c r="W1" s="15"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
+      <c r="N1" s="14"/>
+      <c r="O1" s="14"/>
+      <c r="P1" s="14"/>
+      <c r="Q1" s="14"/>
+      <c r="R1" s="14"/>
+      <c r="S1" s="14"/>
+      <c r="T1" s="14"/>
+      <c r="U1" s="14"/>
+      <c r="V1" s="14"/>
+      <c r="W1" s="14"/>
     </row>
     <row r="2" spans="2:23" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="24" t="s">
+      <c r="C2" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="24" t="s">
+      <c r="D2" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="24"/>
-      <c r="L2" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="M2" s="20"/>
-      <c r="N2" s="20"/>
-      <c r="O2" s="20"/>
-      <c r="P2" s="20"/>
-      <c r="Q2" s="20"/>
-      <c r="R2" s="20"/>
-      <c r="S2" s="20"/>
-      <c r="T2" s="20"/>
-      <c r="U2" s="20"/>
-      <c r="V2" s="20"/>
-      <c r="W2" s="21"/>
+      <c r="E2" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="23"/>
+      <c r="L2" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="M2" s="19"/>
+      <c r="N2" s="19"/>
+      <c r="O2" s="19"/>
+      <c r="P2" s="19"/>
+      <c r="Q2" s="19"/>
+      <c r="R2" s="19"/>
+      <c r="S2" s="19"/>
+      <c r="T2" s="19"/>
+      <c r="U2" s="19"/>
+      <c r="V2" s="19"/>
+      <c r="W2" s="20"/>
     </row>
     <row r="3" spans="2:23" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="23"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
+      <c r="B3" s="22"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
       <c r="E3" s="1" t="s">
         <v>4</v>
       </c>
@@ -1016,40 +1019,40 @@
         <v>10</v>
       </c>
       <c r="L3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="O3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="N3" s="1" t="s">
+      <c r="P3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="O3" s="1" t="s">
+      <c r="Q3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="P3" s="1" t="s">
+      <c r="R3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="Q3" s="1" t="s">
+      <c r="S3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="R3" s="1" t="s">
+      <c r="T3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="S3" s="1" t="s">
+      <c r="U3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="T3" s="1" t="s">
+      <c r="V3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="U3" s="1" t="s">
+      <c r="W3" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="V3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="W3" s="2" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="4" spans="2:23" ht="20.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
@@ -1057,61 +1060,61 @@
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
       <c r="E4" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="F4" s="12" t="s">
+      <c r="H4" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="G4" s="12" t="s">
+      <c r="I4" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="H4" s="12" t="s">
+      <c r="J4" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="I4" s="12" t="s">
+      <c r="K4" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="J4" s="12" t="s">
+      <c r="L4" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="K4" s="12" t="s">
+      <c r="M4" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="L4" s="12" t="s">
+      <c r="N4" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="M4" s="12" t="s">
+      <c r="O4" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="N4" s="12" t="s">
+      <c r="P4" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="O4" s="12" t="s">
+      <c r="Q4" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="P4" s="12" t="s">
+      <c r="R4" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="Q4" s="12" t="s">
+      <c r="S4" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="T4" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="R4" s="12" t="s">
+      <c r="U4" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="S4" s="12" t="s">
+      <c r="V4" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="W4" s="13" t="s">
         <v>43</v>
-      </c>
-      <c r="T4" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="U4" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="V4" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="W4" s="13" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="5" spans="2:23" ht="17.45" customHeight="1" x14ac:dyDescent="0.15">
@@ -1475,17 +1478,17 @@
       <c r="W19" s="7"/>
     </row>
     <row r="20" spans="2:23" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C20" s="17"/>
-      <c r="D20" s="18"/>
+      <c r="B20" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" s="16"/>
+      <c r="D20" s="17"/>
       <c r="E20" s="8" t="str">
-        <f>IFERROR(AVERAGE(E5:E19),"")</f>
+        <f t="shared" ref="E20:U20" si="0">IFERROR(AVERAGE(E5:E19),"")</f>
         <v/>
       </c>
       <c r="F20" s="8" t="str">
-        <f t="shared" ref="F20:W20" si="0">IFERROR(AVERAGE(F5:F19),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="G20" s="8" t="str">
@@ -1549,11 +1552,11 @@
         <v/>
       </c>
       <c r="V20" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="W20" s="14" t="str">
-        <f t="shared" si="0"/>
+        <f>IFERROR(AVERAGE(V5:V19),"")</f>
+        <v/>
+      </c>
+      <c r="W20" s="8" t="str">
+        <f t="shared" ref="W20" si="1">IFERROR(AVERAGE(W5:W19),"")</f>
         <v/>
       </c>
     </row>
@@ -1579,13 +1582,14 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1616,7 +1620,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B1">
         <v>8</v>

--- a/excel/finished/wg8#高炉/出铁化学成分报表.xlsx
+++ b/excel/finished/wg8#高炉/出铁化学成分报表.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22228"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABD61F79-7EE2-405E-9CBC-9C95019ADF87}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F4BB052-782B-4F50-8F02-66B827BC68B8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3165" yWindow="1695" windowWidth="24480" windowHeight="14580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1275" yWindow="-120" windowWidth="27645" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="8高炉出铁化学成分报表" sheetId="1" r:id="rId1"/>
@@ -524,7 +524,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -580,6 +580,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -921,7 +922,7 @@
   <dimension ref="B1:W21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -930,7 +931,7 @@
     <col min="3" max="3" width="12.625" customWidth="1"/>
     <col min="11" max="11" width="0" hidden="1" customWidth="1"/>
     <col min="21" max="21" width="0" hidden="1" customWidth="1"/>
-    <col min="23" max="23" width="9.25" customWidth="1"/>
+    <col min="23" max="23" width="9.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:23" ht="47.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -1555,7 +1556,7 @@
         <f>IFERROR(AVERAGE(V5:V19),"")</f>
         <v/>
       </c>
-      <c r="W20" s="8" t="str">
+      <c r="W20" s="25" t="str">
         <f t="shared" ref="W20" si="1">IFERROR(AVERAGE(W5:W19),"")</f>
         <v/>
       </c>
